--- a/Bảng phân công.xlsx
+++ b/Bảng phân công.xlsx
@@ -5,8 +5,8 @@
   <sheets>
     <sheet state="visible" name="Dương Gia Bảo_PC01660" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Trần Thành Trung_PC01815" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Võ Đăng Khoa_PC" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Đinh Nguyễn Hải Sang_PC" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Võ Đăng Khoa_PC00466" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Đinh Nguyễn Hải Sang_PC01859" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -151,7 +151,7 @@
     <t>Tên thành viên: Võ Đăng Khoa</t>
   </si>
   <si>
-    <t>MSSV:</t>
+    <t>MSSV: PC00466</t>
   </si>
   <si>
     <t>Thiết kế cơ sở dữ liệu</t>
@@ -211,7 +211,7 @@
     <t>Tên thành viên: Đinh Nguyễn Hải Sang</t>
   </si>
   <si>
-    <t>MSSV: PC</t>
+    <t>MSSV: PC01859</t>
   </si>
   <si>
     <t>Tìm dữ liệu cho website</t>
@@ -1601,7 +1601,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="59.88"/>
-    <col customWidth="1" min="3" max="3" width="15.25"/>
+    <col customWidth="1" min="3" max="3" width="27.25"/>
     <col customWidth="1" min="4" max="4" width="25.5"/>
     <col customWidth="1" min="5" max="5" width="44.25"/>
   </cols>
